--- a/Features.xlsx
+++ b/Features.xlsx
@@ -678,7 +678,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>x1</t>
   </si>
@@ -274,6 +275,57 @@
   </si>
   <si>
     <t>new column, if previous close = new if not old | close - new = session time</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>depth = 8</t>
+  </si>
+  <si>
+    <t>trees = 200</t>
+  </si>
+  <si>
+    <t>shrinkage = 0.1</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>gbm (caret)</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>trees = 160</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Scale/Center/Log/pca</t>
+  </si>
+  <si>
+    <t>Scale/Center/Log</t>
+  </si>
+  <si>
+    <t>trees = 60</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>depth = 9</t>
+  </si>
+  <si>
+    <t>depth = 6</t>
+  </si>
+  <si>
+    <t>shrinkage = 0.01</t>
   </si>
 </sst>
 </file>
@@ -330,8 +382,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,11 +415,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1009,4 +1105,207 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>825</v>
+      </c>
+      <c r="G2">
+        <v>0.86676819999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0.86075950000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0.86686439999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0.86609860000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0.8659481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0.86621519999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0.86146719999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
   <si>
     <t>x1</t>
   </si>
@@ -326,6 +326,129 @@
   </si>
   <si>
     <t>shrinkage = 0.01</t>
+  </si>
+  <si>
+    <t>trees = 300</t>
+  </si>
+  <si>
+    <t>rf (caret)</t>
+  </si>
+  <si>
+    <t>trees = 500</t>
+  </si>
+  <si>
+    <t>C5.0</t>
+  </si>
+  <si>
+    <t>AdaBag</t>
+  </si>
+  <si>
+    <t>LogitBoost</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>nnet</t>
+  </si>
+  <si>
+    <t>rda</t>
+  </si>
+  <si>
+    <t>rocc</t>
+  </si>
+  <si>
+    <t>svmLinear</t>
+  </si>
+  <si>
+    <t>svmRadial</t>
+  </si>
+  <si>
+    <t>xgbTree</t>
+  </si>
+  <si>
+    <t>xyf</t>
+  </si>
+  <si>
+    <t>svmPoly</t>
+  </si>
+  <si>
+    <t>mtry=3</t>
+  </si>
+  <si>
+    <t>mtry=8</t>
+  </si>
+  <si>
+    <t>trails=5</t>
+  </si>
+  <si>
+    <t>winnow=T</t>
+  </si>
+  <si>
+    <t>model='rules'</t>
+  </si>
+  <si>
+    <t>model='tree'</t>
+  </si>
+  <si>
+    <t>trails=10</t>
+  </si>
+  <si>
+    <t>winnow=F</t>
+  </si>
+  <si>
+    <t>trails=20</t>
+  </si>
+  <si>
+    <t>C=4</t>
+  </si>
+  <si>
+    <t>fL=0</t>
+  </si>
+  <si>
+    <t>usekernel=T</t>
+  </si>
+  <si>
+    <t>usekernel=F</t>
+  </si>
+  <si>
+    <t>fL=5</t>
+  </si>
+  <si>
+    <t>decay=0.9</t>
+  </si>
+  <si>
+    <t>size=10</t>
+  </si>
+  <si>
+    <t>decay=0.7</t>
+  </si>
+  <si>
+    <t>size=3</t>
+  </si>
+  <si>
+    <t>size=14</t>
+  </si>
+  <si>
+    <t>decay=1</t>
+  </si>
+  <si>
+    <t>nIter=5</t>
+  </si>
+  <si>
+    <t>nIter=25</t>
+  </si>
+  <si>
+    <t>nIter=1</t>
+  </si>
+  <si>
+    <t>nrounds=100</t>
+  </si>
+  <si>
+    <t>max_depth=8</t>
+  </si>
+  <si>
+    <t>eta=0.1</t>
   </si>
 </sst>
 </file>
@@ -382,8 +505,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -429,6 +618,39 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -442,6 +664,39 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1109,19 +1364,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1138,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1161,7 +1417,7 @@
         <v>0.86676819999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1184,7 +1440,7 @@
         <v>0.86075950000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1207,7 +1463,7 @@
         <v>0.86686439999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1230,7 +1486,7 @@
         <v>0.86609860000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1252,8 +1508,11 @@
       <c r="G6">
         <v>0.8659481</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1275,8 +1534,11 @@
       <c r="G7">
         <v>0.86621519999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1297,6 +1559,406 @@
       </c>
       <c r="G8">
         <v>0.86146719999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0.8639502</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.85843530000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0.86423479999999997</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0.8236213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0.81752080000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>0.84947910000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0.85728070000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>0.82255080000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0.84015329999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0.84015329999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0.86505089999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>0.86379379999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0.86459410000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>0.86218810000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0.81223529999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0.80852279999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0.74086870000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0.86696709999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
   <si>
     <t>x1</t>
   </si>
@@ -340,9 +341,6 @@
     <t>C5.0</t>
   </si>
   <si>
-    <t>AdaBag</t>
-  </si>
-  <si>
     <t>LogitBoost</t>
   </si>
   <si>
@@ -355,9 +353,6 @@
     <t>rda</t>
   </si>
   <si>
-    <t>rocc</t>
-  </si>
-  <si>
     <t>svmLinear</t>
   </si>
   <si>
@@ -367,9 +362,6 @@
     <t>xgbTree</t>
   </si>
   <si>
-    <t>xyf</t>
-  </si>
-  <si>
     <t>svmPoly</t>
   </si>
   <si>
@@ -400,9 +392,6 @@
     <t>trails=20</t>
   </si>
   <si>
-    <t>C=4</t>
-  </si>
-  <si>
     <t>fL=0</t>
   </si>
   <si>
@@ -449,13 +438,73 @@
   </si>
   <si>
     <t>eta=0.1</t>
+  </si>
+  <si>
+    <t>nrounds=500</t>
+  </si>
+  <si>
+    <t>max_depth=6</t>
+  </si>
+  <si>
+    <t>nrounds=200</t>
+  </si>
+  <si>
+    <t>eta=0.05</t>
+  </si>
+  <si>
+    <t>gamme=0</t>
+  </si>
+  <si>
+    <t>lambda=0</t>
+  </si>
+  <si>
+    <t>lambda=1</t>
+  </si>
+  <si>
+    <t>QDA - individual covariance for each group.</t>
+  </si>
+  <si>
+    <t>LDA - a common covariance matrix.</t>
+  </si>
+  <si>
+    <t>Conditional independent variables - similar to Naive Bayes, but variable variances within group (main diagonal elements) are equal.</t>
+  </si>
+  <si>
+    <t>Classification using euclidean distance - as in previous case, but variances are the same for all groups. Objects are assigned to group with nearest mean.</t>
+  </si>
+  <si>
+    <t>gamme=0.05</t>
+  </si>
+  <si>
+    <t>lambda=0.2</t>
+  </si>
+  <si>
+    <t>n.minobsinnode=1</t>
+  </si>
+  <si>
+    <t>h2o-dl</t>
+  </si>
+  <si>
+    <t>0.15,0.5,0.5</t>
+  </si>
+  <si>
+    <t>0.5,0.5,0.5</t>
+  </si>
+  <si>
+    <t>1. Dropout rate for a course</t>
+  </si>
+  <si>
+    <t>2. 39 courses</t>
+  </si>
+  <si>
+    <t>3. Existing students overfitting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,6 +536,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +561,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -599,12 +655,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -651,6 +741,22 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -697,6 +803,22 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1364,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1416,6 +1538,9 @@
       <c r="G2">
         <v>0.86676819999999999</v>
       </c>
+      <c r="I2">
+        <v>0.86860890000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -1441,25 +1566,25 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.86686439999999998</v>
       </c>
     </row>
@@ -1508,9 +1633,6 @@
       <c r="G6">
         <v>0.8659481</v>
       </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -1534,9 +1656,6 @@
       <c r="G7">
         <v>0.86621519999999996</v>
       </c>
-      <c r="I7" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -1561,7 +1680,7 @@
         <v>0.86146719999999999</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1587,43 +1706,53 @@
         <v>0.8639502</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.86696830000000003</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="I10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>0.85843530000000001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>116</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -1635,33 +1764,28 @@
         <v>8</v>
       </c>
       <c r="G12">
+        <v>0.85843530000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.86423479999999997</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>0.8236213</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1669,13 +1793,13 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
         <v>96</v>
@@ -1684,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>0.81752080000000005</v>
+        <v>0.8236213</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1692,13 +1816,13 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
         <v>96</v>
@@ -1707,7 +1831,7 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <v>0.84947910000000004</v>
+        <v>0.81752080000000005</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1715,67 +1839,97 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0.84947910000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.85728070000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0.82255080000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>0.85728070000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>0.82255080000000003</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.84015329999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
         <v>96</v>
@@ -1787,35 +1941,36 @@
         <v>0.84015329999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>0.84015329999999999</v>
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.86505089999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
         <v>96</v>
@@ -1824,18 +1979,18 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <v>0.86505089999999996</v>
+        <v>0.86379379999999994</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>96</v>
@@ -1844,18 +1999,18 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>0.86379379999999994</v>
+        <v>0.86459410000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
         <v>96</v>
@@ -1864,35 +2019,34 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>0.86459410000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
         <v>0.86218810000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.81223529999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>96</v>
@@ -1901,64 +2055,227 @@
         <v>8</v>
       </c>
       <c r="G30">
-        <v>0.81223529999999999</v>
+        <v>0.80852279999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0.74086870000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>0.80852279999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>0.86696709999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
         <v>139</v>
       </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>0.74086870000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0.85922710000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>0.86748599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="G34">
-        <v>0.86696709999999999</v>
+      <c r="E36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.86849880000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0.75414990000000004</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0.75414990000000004</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0.75338170000000004</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3">
+        <v>256128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>0.84026339999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="3">
+        <v>256128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43">
+        <v>0.85595770000000004</v>
+      </c>
+      <c r="G43">
+        <v>0.86035229999999996</v>
+      </c>
+      <c r="H43">
+        <v>0.86037110000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1970,4 +2287,39 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="169">
   <si>
     <t>x1</t>
   </si>
@@ -498,6 +498,36 @@
   </si>
   <si>
     <t>3. Existing students overfitting</t>
+  </si>
+  <si>
+    <t>4. Blending with R caret</t>
+  </si>
+  <si>
+    <t>5. H2O rf</t>
+  </si>
+  <si>
+    <t>6. SVM</t>
+  </si>
+  <si>
+    <t>7. 3/8 scale</t>
+  </si>
+  <si>
+    <t>8. shuffle data</t>
+  </si>
+  <si>
+    <t>0.15,0.25,0.25,0.25</t>
+  </si>
+  <si>
+    <t>Scale/Center/Anscombe</t>
+  </si>
+  <si>
+    <t>depth = 7</t>
+  </si>
+  <si>
+    <t>9. Couse # attempt for a student</t>
+  </si>
+  <si>
+    <t>10. vw</t>
   </si>
 </sst>
 </file>
@@ -544,12 +574,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -561,7 +603,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -687,14 +729,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -757,6 +805,8 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -819,6 +869,8 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1486,14 +1538,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
@@ -1739,76 +1792,79 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.86644739999999998</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
         <v>0.85843530000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.86423479999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>0.8236213</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1819,7 +1875,7 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -1831,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <v>0.81752080000000005</v>
+        <v>0.8236213</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1839,147 +1895,150 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0.81752080000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
         <v>0.84947910000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
         <v>0.85728070000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>124</v>
       </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
         <v>0.82255080000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="2">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
         <v>0.84015329999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>0.84015329999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="2">
-        <v>8</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2">
         <v>0.86505089999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>0.86379379999999994</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1987,10 +2046,10 @@
         <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
         <v>96</v>
@@ -1999,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>0.86459410000000003</v>
+        <v>0.86379379999999994</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2007,55 +2066,58 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0.86459410000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>0.86218810000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="2">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
         <v>0.81223529999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>0.80852279999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2063,39 +2125,33 @@
         <v>106</v>
       </c>
       <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0.80852279999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
         <v>0.74086870000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>0.86696709999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2103,7 +2159,7 @@
         <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>137</v>
@@ -2118,7 +2174,7 @@
         <v>8</v>
       </c>
       <c r="G34">
-        <v>0.85922710000000002</v>
+        <v>0.86696709999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2126,10 +2182,10 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -2141,53 +2197,53 @@
         <v>8</v>
       </c>
       <c r="G35">
+        <v>0.85922710000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
         <v>0.86748599999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="2">
-        <v>8</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2">
         <v>0.86849880000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>0.75414990000000004</v>
-      </c>
-      <c r="H38" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2198,7 +2254,7 @@
         <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
         <v>96</v>
@@ -2210,7 +2266,7 @@
         <v>0.75414990000000004</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2218,44 +2274,50 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0.75414990000000004</v>
+      </c>
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
         <v>150</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>151</v>
       </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40">
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
         <v>0.75338170000000004</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="H41" t="s">
+    <row r="42" spans="1:8">
+      <c r="H42" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="3">
-        <v>256128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42">
-        <v>8</v>
-      </c>
-      <c r="G42">
-        <v>0.84026339999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2266,16 +2328,50 @@
         <v>256128</v>
       </c>
       <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0.84026339999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="3">
+        <v>256128</v>
+      </c>
+      <c r="C44" t="s">
         <v>155</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.85595770000000004</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>0.86035229999999996</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>0.86037110000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="3">
+        <v>800512256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>0.85118530000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2291,16 +2387,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2312,6 +2411,41 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>x1</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>10. vw</t>
+  </si>
+  <si>
+    <t>11. varImp</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -734,13 +743,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1540,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2387,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2439,13 +2449,18 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
     </row>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>x1</t>
   </si>
@@ -531,6 +531,27 @@
   </si>
   <si>
     <t>11. varImp</t>
+  </si>
+  <si>
+    <t>h2o-gbm</t>
+  </si>
+  <si>
+    <t>depth=8</t>
+  </si>
+  <si>
+    <t>balance.class=T</t>
+  </si>
+  <si>
+    <t>distribution='bernoulli'</t>
+  </si>
+  <si>
+    <t>shrinkage=0.01</t>
+  </si>
+  <si>
+    <t>n.trees=1000</t>
+  </si>
+  <si>
+    <t>n.bins=18</t>
   </si>
 </sst>
 </file>
@@ -612,8 +633,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -817,6 +848,11 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -881,6 +917,11 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,17 +1589,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2382,6 +2423,40 @@
       </c>
       <c r="G45">
         <v>0.85118530000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>0.86673699999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2399,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
   <si>
     <t>x1</t>
   </si>
@@ -552,6 +552,15 @@
   </si>
   <si>
     <t>n.bins=18</t>
+  </si>
+  <si>
+    <t>balance.class=F</t>
+  </si>
+  <si>
+    <t>n.bins=128</t>
+  </si>
+  <si>
+    <t>h2o-glm</t>
   </si>
 </sst>
 </file>
@@ -633,8 +642,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -783,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -853,6 +870,10 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -922,6 +943,10 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1589,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2457,6 +2482,82 @@
       </c>
       <c r="D48" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>0.86888790000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>0.86912809999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54">
+        <v>0.86042410000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>x1</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>h2o-glm</t>
+  </si>
+  <si>
+    <t>n.bins=1024</t>
+  </si>
+  <si>
+    <t>depth=7</t>
+  </si>
+  <si>
+    <t>n.trees=900</t>
   </si>
 </sst>
 </file>
@@ -642,8 +651,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -800,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -874,6 +885,7 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -947,6 +959,7 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1614,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2558,6 +2571,40 @@
       </c>
       <c r="G54">
         <v>0.86042410000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>0.87007009999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="252">
   <si>
     <t>x1</t>
   </si>
@@ -570,6 +571,213 @@
   </si>
   <si>
     <t>n.trees=900</t>
+  </si>
+  <si>
+    <t>serverNum</t>
+  </si>
+  <si>
+    <t>accessNum</t>
+  </si>
+  <si>
+    <t>activeDays</t>
+  </si>
+  <si>
+    <t>timeSD</t>
+  </si>
+  <si>
+    <t>browserNum</t>
+  </si>
+  <si>
+    <t>nagivateNum</t>
+  </si>
+  <si>
+    <t>cat_sequentialNum</t>
+  </si>
+  <si>
+    <t>page_closeNum</t>
+  </si>
+  <si>
+    <t>cat_chapterNum</t>
+  </si>
+  <si>
+    <t>problemNum</t>
+  </si>
+  <si>
+    <t>videoNum</t>
+  </si>
+  <si>
+    <t>cat_problemNum</t>
+  </si>
+  <si>
+    <t>cat_videoNum</t>
+  </si>
+  <si>
+    <t>pagePerSession</t>
+  </si>
+  <si>
+    <t>assignmentPerSession</t>
+  </si>
+  <si>
+    <t>collaborationNum</t>
+  </si>
+  <si>
+    <t>discussionNum</t>
+  </si>
+  <si>
+    <t>DurationCourse</t>
+  </si>
+  <si>
+    <t>TueNum</t>
+  </si>
+  <si>
+    <t>MonNum</t>
+  </si>
+  <si>
+    <t>ThuNum</t>
+  </si>
+  <si>
+    <t>13oclock</t>
+  </si>
+  <si>
+    <t>videoPerSession</t>
+  </si>
+  <si>
+    <t>WedNum</t>
+  </si>
+  <si>
+    <t>14oclock</t>
+  </si>
+  <si>
+    <t>FriNum</t>
+  </si>
+  <si>
+    <t>SunNum</t>
+  </si>
+  <si>
+    <t>dropoutRate</t>
+  </si>
+  <si>
+    <t>courseAttempt</t>
+  </si>
+  <si>
+    <t>cs_video</t>
+  </si>
+  <si>
+    <t>cs_sequential</t>
+  </si>
+  <si>
+    <t>cs_discussion</t>
+  </si>
+  <si>
+    <t>cs_html</t>
+  </si>
+  <si>
+    <t>cs_vertical</t>
+  </si>
+  <si>
+    <t>cs_outlink</t>
+  </si>
+  <si>
+    <t>cs_problem</t>
+  </si>
+  <si>
+    <t>cs_chapter</t>
+  </si>
+  <si>
+    <t>timeSkewness</t>
+  </si>
+  <si>
+    <t>cat_combinedopenendedNum</t>
+  </si>
+  <si>
+    <t>cs_dictation</t>
+  </si>
+  <si>
+    <t>20oclock</t>
+  </si>
+  <si>
+    <t>21oclock</t>
+  </si>
+  <si>
+    <t>cs_static_tab</t>
+  </si>
+  <si>
+    <t>19oclock</t>
+  </si>
+  <si>
+    <t>cs_combinedopenended</t>
+  </si>
+  <si>
+    <t>cs_peergrading</t>
+  </si>
+  <si>
+    <t>18oclock</t>
+  </si>
+  <si>
+    <t>22oclock</t>
+  </si>
+  <si>
+    <t>cs_about</t>
+  </si>
+  <si>
+    <t>timeKurtosis</t>
+  </si>
+  <si>
+    <t>17oclock</t>
+  </si>
+  <si>
+    <t>23oclock</t>
+  </si>
+  <si>
+    <t>16oclock</t>
+  </si>
+  <si>
+    <t>0oclock</t>
+  </si>
+  <si>
+    <t>1oclock</t>
+  </si>
+  <si>
+    <t>4oclock</t>
+  </si>
+  <si>
+    <t>15oclock</t>
+  </si>
+  <si>
+    <t>5oclock</t>
+  </si>
+  <si>
+    <t>6oclock</t>
+  </si>
+  <si>
+    <t>2oclock</t>
+  </si>
+  <si>
+    <t>10oclock</t>
+  </si>
+  <si>
+    <t>3oclock</t>
+  </si>
+  <si>
+    <t>7oclock</t>
+  </si>
+  <si>
+    <t>wikiNum</t>
+  </si>
+  <si>
+    <t>9oclock</t>
+  </si>
+  <si>
+    <t>11oclock</t>
+  </si>
+  <si>
+    <t>8oclock</t>
+  </si>
+  <si>
+    <t>SatNum</t>
+  </si>
+  <si>
+    <t>12oclock</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1500,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1629,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -2694,4 +2902,576 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1">
+        <v>0.8440742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>0.83883790000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>0.83478039999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>0.82765829999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>0.82663980000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>0.81780640000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>0.81331200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>0.81012059999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>0.80511509999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>0.7863211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11">
+        <v>0.77987759999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12">
+        <v>0.77713390000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13">
+        <v>0.76348780000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>0.75004879999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>0.74889760000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16">
+        <v>0.72811329999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>0.71936359999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>0.71168399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19">
+        <v>0.69608080000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20">
+        <v>0.69552930000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21">
+        <v>0.69044539999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22">
+        <v>0.68663399999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23">
+        <v>0.68570109999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24">
+        <v>0.68561260000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25">
+        <v>0.68228909999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26">
+        <v>0.67875759999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27">
+        <v>0.67812229999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28">
+        <v>0.61201989999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29">
+        <v>0.57793300000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30">
+        <v>0.555759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31">
+        <v>0.54467049999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32">
+        <v>0.5441414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33">
+        <v>0.52895159999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34">
+        <v>0.52840549999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35">
+        <v>0.52672169999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36">
+        <v>0.52393889999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37">
+        <v>0.51235909999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38">
+        <v>0.50062839999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39">
+        <v>0.49949379999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40">
+        <v>0.49524400000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41">
+        <v>0.49373210000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42">
+        <v>0.4924347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <v>0.49237750000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44">
+        <v>0.4906759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45">
+        <v>0.48774070000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <v>0.48677320000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47">
+        <v>0.48644860000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48">
+        <v>0.484155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49">
+        <v>0.4784293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50">
+        <v>0.47512579999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51">
+        <v>0.47018739999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52">
+        <v>0.46178010000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53">
+        <v>0.42634650000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54">
+        <v>0.41919040000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55">
+        <v>0.38154929999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56">
+        <v>0.3623748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57">
+        <v>0.36086620000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58">
+        <v>0.36034529999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59">
+        <v>0.35987520000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60">
+        <v>0.35851620000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61">
+        <v>0.35774250000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62">
+        <v>0.35628100000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63">
+        <v>0.34997129999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64">
+        <v>0.3488715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65">
+        <v>0.3456417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66">
+        <v>0.34453869999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67">
+        <v>0.33842529999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68">
+        <v>0.33259749999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69">
+        <v>0.32673980000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2908,11 +2908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="New Var" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
   <si>
     <t>x1</t>
   </si>
@@ -778,6 +779,12 @@
   </si>
   <si>
     <t>12oclock</t>
+  </si>
+  <si>
+    <t>n.trees=600</t>
+  </si>
+  <si>
+    <t>n.bins=186</t>
   </si>
 </sst>
 </file>
@@ -859,8 +866,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1019,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1103,7 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1168,6 +1178,7 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1838,7 +1849,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A56" sqref="A56:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2908,7 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD69"/>
     </sheetView>
   </sheetViews>
@@ -3477,4 +3488,50 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>0.87101189999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Features.xlsx
+++ b/Features.xlsx
@@ -3495,7 +3495,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="256">
   <si>
     <t>x1</t>
   </si>
@@ -785,6 +785,12 @@
   </si>
   <si>
     <t>n.bins=186</t>
+  </si>
+  <si>
+    <t>n.bins=2186</t>
+  </si>
+  <si>
+    <t>nbin_cats=2024</t>
   </si>
 </sst>
 </file>
@@ -866,8 +872,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1028,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1104,6 +1114,8 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1179,6 +1191,8 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3492,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3526,8 +3540,37 @@
         <v>0.87101189999999995</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0.86949270000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
